--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/UI界面.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/UI界面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13380" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UISetting" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -130,9 +130,6 @@
     <t>ui_roleinfo/ui_role_info</t>
   </si>
   <si>
-    <t>1|3</t>
-  </si>
-  <si>
     <t>ui_areas/ui_areas</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
     <t>ui_quest/ui_quest</t>
   </si>
   <si>
+    <t>ui_quest/ui_popup_patrol</t>
+  </si>
+  <si>
     <t>ui_unit/ui_unit_info</t>
   </si>
   <si>
@@ -160,18 +160,6 @@
     <t>ui_unit/ui_unit_skill</t>
   </si>
   <si>
-    <t>ui_stage/ui_stage_equipment</t>
-  </si>
-  <si>
-    <t>ui_stage/ui_stage_equipment_select</t>
-  </si>
-  <si>
-    <t>ui_stage/ui_stage_trainning</t>
-  </si>
-  <si>
-    <t>ui_stage/ui_stage_trainning_select</t>
-  </si>
-  <si>
     <t>ui_vscourt/ui_solo_court_logic</t>
   </si>
   <si>
@@ -193,10 +181,22 @@
     <t>ui_equip/ui_equip_level_up</t>
   </si>
   <si>
-    <t>ui_energy</t>
-  </si>
-  <si>
-    <t>ui_team_talent</t>
+    <t>ui_state/ui_energy</t>
+  </si>
+  <si>
+    <t>ui_team/ui_team_talent</t>
+  </si>
+  <si>
+    <t>ui_stage/ui_mazestage</t>
+  </si>
+  <si>
+    <t>ui_player/ui_player_info_lite</t>
+  </si>
+  <si>
+    <t>ui_notice/ui_notice</t>
+  </si>
+  <si>
+    <t>ui_mail/ui_mail</t>
   </si>
   <si>
     <t>场景名称</t>
@@ -265,49 +265,52 @@
     <t>Role1</t>
   </si>
   <si>
-    <t>{#凯瑟琳2待机2动作};0;{#凯瑟琳2待机2动作};这里是对话;1|{#凯瑟琳2得意动作}{#凯瑟琳2思考表情};15;{凯瑟琳2得意动作恢复};这里是对话;3|{#凯瑟琳2紧张动作}{#凯瑟琳2思考表情};15;{凯瑟琳2紧张动作恢复};这里是对话;3|{#凯瑟琳2开心动作}{#凯瑟琳2思考表情};15;{凯瑟琳2开心动作恢复};这里是对话;3</t>
-  </si>
-  <si>
-    <t>{#凯瑟琳2喝药动作};5;{#凯瑟琳2喝药动作恢复};这里是对话;1|{#凯瑟琳2享受动作};5;{#凯瑟琳2享受动作恢复};这里是对话;1|{#凯瑟琳2惊讶动作};5;{#凯瑟琳2惊讶动作恢复};这里是对话;1</t>
-  </si>
-  <si>
-    <t>{#凯瑟琳2威慑动作};5;{#凯瑟琳2威慑动作恢复}这里是对话2;1</t>
+    <t>{#凯瑟琳2待机2动作};4;{#凯瑟琳2待机2动作};唔……;3|{#凯瑟琳2得意动作}{#凯瑟琳2思考表情};5;{#凯瑟琳2得意动作恢复}{#凯瑟琳2待机表情};分裂和增生的速度很快，难缠……;5|{#凯瑟琳2紧张动作}{#凯瑟琳2思考表情};6;{#凯瑟琳2紧张动作恢复}{#凯瑟琳2待机表情};找个什么借口再检查一下你呢？;5|{#凯瑟琳2开心动作}{#凯瑟琳2思考表情};3;{#凯瑟琳2开心动作恢复}{#凯瑟琳待机表情};我对你可太感兴趣了;3</t>
+  </si>
+  <si>
+    <t>{#凯瑟琳2喝药动作}{#凯瑟琳2喝药表情};5;{#凯瑟琳2喝药动作恢复}{#凯瑟琳2待机表情};要我帮你做什么吗？;4|{#凯瑟琳2享受动作}{#凯瑟琳2享受表情};2;{#凯瑟琳2享受动作恢复}{#凯瑟琳2待机表情};每次被你触摸，我的每一根神经都兴奋不已~;1|{#凯瑟琳2惊讶动作}{#凯瑟琳2惊讶表情};2;{#凯瑟琳2惊讶动作恢复}{#凯瑟琳2待机表情};明明没有受伤，你找我有什么事？;3</t>
+  </si>
+  <si>
+    <t>{#凯瑟琳2威慑动作};5;{#凯瑟琳2威慑动作恢复};快让我检查一下，放心，不会出问题的~;5</t>
   </si>
   <si>
     <t>MhScenario12</t>
   </si>
   <si>
-    <t>{#聂飞俯卧撑动作}{#聂飞严肃表情};25|{#聂飞待机表情};{#聂飞得意动作}{#聂飞得意表情};6|{#聂飞得意动作恢复}{#聂飞待机表情};3|{#聂飞思考动作}{#聂飞思考表情};35|{#聂飞思考动作恢复}{#聂飞待机表情};5|{#聂飞待机动作};10</t>
-  </si>
-  <si>
-    <t>{#聂飞俯卧撑动作}{#聂飞严肃表情};25;{#聂飞俯卧撑动作恢复};这里是对话11;10</t>
-  </si>
-  <si>
-    <t>{#聂飞军体拳动作}{#聂飞军体拳表情};5;{#聂飞军体拳动作恢复};这里是军体拳对话;4</t>
+    <t>{#聂飞俯卧撑动作}{#聂飞严肃表情};7;{#聂飞俯卧撑动作恢复}{#聂飞待机表情};呼，呼;3;|{#聂飞得意动作}{#聂飞得意表情};5;{#聂飞得意动作恢复}{#聂飞待机表情};哼哼，我的过去，值得细细品味。;6|{#聂飞思考动作}{#聂飞思考表情};5;{#聂飞思考动作恢复}{#聂飞待机表情};恩……;5|{#聂飞紧张动作}{#聂飞紧张表情};5;{#聂飞紧张动作恢复}{#聂飞待机表情};什么？新的工作安排，马上过去！;5</t>
+  </si>
+  <si>
+    <t>{#聂飞俯卧撑动作}{#聂飞严肃表情};5;{#聂飞俯卧撑动作恢复};即使是猫，每天也要坚持锻炼！;10|{#聂飞开心动作}{#聂飞开心表情};4;{#聂飞开心动作恢复}{#聂飞待机表情};猫条与猫薄荷最适合我了！;4|{#聂飞忧伤动作}{#聂飞忧伤表情};5;{#聂飞忧伤动作恢复}{#聂飞待机表情};凯瑟琳说要扣猫条，少年，帮我求求情。;5</t>
+  </si>
+  <si>
+    <t>{#聂飞军体拳动作}{#聂飞军体拳表情};5;{#聂飞军体拳动作恢复};小子，一起来锻炼吧！;5</t>
   </si>
   <si>
     <t>MhScenario13</t>
   </si>
   <si>
-    <t>{#涂凌思考动作}{#涂凌思考表情};20;{#涂凌思考动作恢复}{#涂凌待机表情};;|{#涂凌灵感动作}{#涂凌平静表情};10;{#涂凌灵感动作恢复}{#涂凌开心表情};灵感对话！;2|{#涂凌开心动作}{#涂凌开心表情};20;{#涂凌开心动作恢复}{#涂凌待机表情};回复待机！;6</t>
-  </si>
-  <si>
-    <t>{#涂凌点赞动作};5;{#涂凌点赞动作恢复};这里是对话;1|{#涂凌鄙视动作};5;{#涂凌鄙视动作恢复};这里是对话;1</t>
-  </si>
-  <si>
-    <t>{#涂凌扔东西动作};3;{#涂凌扔东西2动作恢复};丢东西对话;2</t>
+    <t>{#涂凌思考动作}{#涂凌思考表情};5;{#涂凌思考动作恢复}{#涂凌待机表情};限定游戏发售，要不要打个通宵呢？;4|{#涂凌灵感动作}{#涂凌平静表情};4;{#涂凌灵感动作恢复}{#涂凌开心表情};有了！通关的方法不止这一种！;4|{#涂凌开心动作}{#涂凌开心表情};5;{#涂凌开心动作恢复}{#涂凌待机表情};呼呼，工作都完成了~;4</t>
+  </si>
+  <si>
+    <t>{#涂凌点赞动作}{#涂凌开心表情};5;{#涂凌点赞动作恢复}{#涂凌待机表情};勇敢的少年，一起来创造奇迹！;5|{#涂凌休闲动作}{#涂凌打字表情};8;{#涂凌休闲动作恢复}{#涂凌待机表情};啊哇哇，吓死我了！;5|{#涂凌惊讶动作}{#涂凌惊讶表情};5;{#涂凌惊讶动作恢复}{#涂凌待机表情};呀！！！不要突然碰我啊！;5</t>
+  </si>
+  <si>
+    <t>{#涂凌严肃动作};3;{#涂凌严肃动作恢复};你好啊，又见面了~;3</t>
+  </si>
+  <si>
+    <t>MhScenario5</t>
+  </si>
+  <si>
+    <t>{#土山奥待机动作};5;{#土山奥待机动作};还有工作……;4|{#土山奥无奈动作}{#土山奥无奈表情};4;{#土山奥无奈动作恢复}{#土山奥待机表情};要多思考。;3|{#土山奥思考动作}{#土山奥思考表情};5;{#土山奥思考动作恢复}{#土山奥待机表情};;</t>
+  </si>
+  <si>
+    <t>{#土山奥威胁动作}{#土山奥思考表情};5;{#土山奥威胁动作恢复}{#土山奥待机表情};警惕。;4|{#土山奥打住动作}{#土山奥思考表情};4;{#土山奥打住动作恢复}{#土山奥待机表情};没有必要。;3|{#土山奥无奈动作}{#土山奥无奈表情};5;{#土山奥无奈动作恢复}{#土山奥待机表情};不必关心我;4</t>
+  </si>
+  <si>
+    <t>{#土山奥待机2动作};4;{#土山奥待机动作};新工作？一起吧;4</t>
   </si>
   <si>
     <t>MhScenario4</t>
-  </si>
-  <si>
-    <t>Role1|Role2|Role3</t>
-  </si>
-  <si>
-    <t>14|11|13</t>
-  </si>
-  <si>
-    <t>MhScenario5</t>
   </si>
   <si>
     <t>Role1|Role2</t>
@@ -1531,10 +1534,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1626,10 +1629,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1637,13 +1640,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1654,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>15</v>
@@ -1668,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>15</v>
@@ -1682,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>15</v>
@@ -1691,18 +1694,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1710,7 +1710,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>15</v>
@@ -1724,10 +1724,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7">
-        <v>500000</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1738,10 +1738,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="7">
+        <v>500000</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1752,27 +1752,28 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>15</v>
+      <c r="B15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1780,13 +1781,11 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>15</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C16" s="16"/>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1794,28 +1793,27 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="E18" s="8" t="s">
-        <v>19</v>
+      <c r="C18" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1825,9 +1823,11 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="F19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1837,11 +1837,11 @@
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
-        <v>34</v>
+      <c r="C20" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1849,13 +1849,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1863,13 +1863,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1877,13 +1877,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1891,13 +1891,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1905,13 +1905,27 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F25">
         <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1927,8 +1941,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I8 I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2040,7 +2054,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" ht="81" spans="1:10">
+    <row r="4" ht="94.5" spans="1:10">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2060,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>62</v>
@@ -2072,7 +2086,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="1:10">
+    <row r="5" ht="94.5" spans="1:10">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2089,7 +2103,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>66</v>
@@ -2101,7 +2115,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" ht="67.5" spans="1:10">
+    <row r="6" ht="81" spans="1:10">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2118,7 +2132,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>70</v>
@@ -2130,30 +2144,36 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="8:10">
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
+    <row r="7" ht="67.5" spans="1:10">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="1">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="I7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
+      <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10">
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -2163,16 +2183,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -2249,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2263,7 +2283,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2408,57 +2428,57 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2502,25 +2522,25 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2567,57 +2587,57 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -2652,25 +2672,25 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2715,99 +2735,99 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="S16" s="1"/>
@@ -2866,46 +2886,46 @@
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P18" s="1"/>
       <c r="S18" s="1"/>
